--- a/_gen_outputs/xacml/xacml2_2.xml.xlsx
+++ b/_gen_outputs/xacml/xacml2_2.xml.xlsx
@@ -453,26 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;PolicySet xmlns="urn:oasis:names:tc:xacml:2.0:policy:schema:os" PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist"&gt;
-    &lt;Target/&gt;
-    &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0.3"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0.3.4"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.3.0.3.4.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.3.0.3.4.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -516,10 +497,10 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, write) :- Subject(S), Resource(R), role(S, pc-member), isMeeting(S, subreviewer), resource_id(R, pcmember_conflicts_rc)."
+    "datalog_subjects": "pc_member(S), subreviewer(S).",
+    "datalog_objects": "meeting(M).",
+    "datalog_relationships": "is_meeting(S, M) :- pc_member(S), subreviewer(S), meeting(M).",
+    "datalog_actions": "can_write(S, M) :- pc_member(S), subreviewer(S), meeting(M), is_meeting(S, M)."
 }</t>
         </is>
       </c>
@@ -527,22 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0.2"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.11.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.11.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target&gt;
                         &lt;Subjects&gt;
                             &lt;Subject&gt;
@@ -591,9 +557,9 @@
         <is>
           <t>{
     "datalog_subjects": "PC_Member(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_pcmember_assignmentcount_rc(R) :- Resource(R).",
-    "datalog_actions": "can_delete(S, R) :- PC_Member(S), Resource(R), is_pcmember_assignmentcount_rc(R)."
+    "datalog_objects": "MeetingPaperResource(R).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_delete(S, R) :- PC_Member(S), MeetingPaperResource(R), role(S, 'pc-member'), isEq_meetingPaper_resId(R, 'pcmember_assignmentcount_rc'), action(S, R, 'delete')."
 }</t>
         </is>
       </c>
@@ -601,24 +567,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0.0.2"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.12.0.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.12.0.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -666,10 +615,10 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(P).",
+    "datalog_subjects": "PCMember(S).",
     "datalog_objects": "MeetingPaper(MP).",
-    "datalog_relationships": "isEq_meetingPaper_resId(MP, 'pcmember_conflicts_rc') :- MeetingPaper(MP).",
-    "datalog_actions": "can_delete(P, MP) :- PCMember(P), MeetingPaper(MP), isEq_meetingPaper_resId(MP, 'pcmember_conflicts_rc')."
+    "datalog_relationships": "",
+    "datalog_actions": "can_delete(S, MP) :- PCMember(S), MeetingPaper(MP)."
 }</t>
         </is>
       </c>
@@ -677,24 +626,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.19.0.1.1.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.1.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -747,10 +679,10 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(P), Subject(P).",
+    "datalog_subjects": "PC_Member(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(P, 'pc-member') :- PCMember(P). has_conflict_status(P, 'subreviewer') :- PCMember(P). is_resource_type(R, 'pcmember_conflicts_rc') :- Resource(R). has_resource_attribute(R, 'isSeeUnassignedAllowed') :- Resource(R).",
-    "datalog_actions": "can_write(P, R) :- PCMember(P), Resource(R), has_role(P, 'pc-member'), has_conflict_status(P, 'subreviewer'), is_resource_type(R, 'pcmember_conflicts_rc'), has_resource_attribute(R, 'isSeeUnassignedAllowed')."
+    "datalog_relationships": "",
+    "datalog_actions": "can_write(S, R) :- PC_Member(S), Resource(R), role(S, \"pc-member\"), isConflicted(S, \"subreviewer\"), isSeeUnassignedAllowed(R, \"pcmember_conflicts_rc\")."
 }</t>
         </is>
       </c>
@@ -758,24 +690,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0.0.2"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.22.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.22.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -812,9 +727,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), role(S, 'subreviewer'), isConflicted(S, 'pc_member'), resource_id(R, 'pcmember_conflicts_rc')."
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, \"subreviewer\") :- Subject(S). has_isConflicted(S, \"pc_member\") :- Subject(S).",
+    "datalog_actions": "can_access(S, O) :- Subject(S), Object(O), has_role(S, \"subreviewer\"), has_isConflicted(S, \"pc_member\")."
 }</t>
         </is>
       </c>
@@ -822,24 +737,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0.1"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.23.0.0.1.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.23.0.0.1.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -883,10 +781,10 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, delete) :- PC_Member(S), Resource(R), role(S, \"pc-member\"), isConflicted(S, \"subreviewer\"), resource_id(R, \"pcmember_conflicts_rc\")."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, \"pc-member\") :- Subject(S).\nhas_isConflicted(S, \"subreviewer\") :- Subject(S).",
+    "datalog_actions": "can_delete(S, O) :- Subject(S), Object(O), has_role(S, \"pc-member\"), has_isConflicted(S, \"subreviewer\")."
 }</t>
         </is>
       </c>
@@ -894,20 +792,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.24.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.24.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -953,10 +838,10 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "pc_member(S).",
-    "datalog_objects": "pcmember_conflicts_rc(O).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_write(S, O) :- pc_member(S), pcmember_conflicts_rc(O)."
+    "datalog_subjects": "Subject(S), Role(R).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_member) :- Subject(S), Role(pc_member).",
+    "datalog_actions": "can_access(S, O, write) :- Subject(S), Object(O), has_role(S, pc_member)."
 }</t>
         </is>
       </c>
@@ -964,22 +849,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2.0.4"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.2.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.2.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target&gt;
                         &lt;Subjects&gt;
                             &lt;Subject&gt;
@@ -1026,9 +896,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, Action) :- Subject(S), Resource(R), role(S, \"pc_member\"), resource_id(R, \"pcmember_conflicts_rc\"), (Action = \"delete\"; Action = \"write\")."
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_member) :- Subject(S).",
+    "datalog_actions": "can_access(S, delete, O) :- Subject(S), Object(O), has_role(S, pc_member).\ncan_access(S, write, O) :- Subject(S), Object(O), has_role(S, pc_member)."
 }</t>
         </is>
       </c>
@@ -1036,24 +906,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0.3"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0.3.4"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.3.0.3.4.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.3.0.3.4.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -1093,10 +946,10 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
+    "datalog_subjects": "User(U), Role(U, R).",
+    "datalog_objects": "Resource(Res).",
     "datalog_relationships": "",
-    "datalog_actions": "can_delete(S, R) :- Subject(S), Resource(R), has_role(S, 'subreviewer'), is_resource(R, 'pcmember_assignmentcount_rc')."
+    "datalog_actions": "can_access(U, Res, delete) :- User(U), Resource(Res), Role(U, subreviewer)."
 }</t>
         </is>
       </c>
@@ -1104,20 +957,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcMember-conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.4.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.4.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -1163,10 +1003,10 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_member') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'write') :- User(U), Resource(R), has_role(U, 'pc_member'), resource_id(R, 'pcMember-conflicts_rc')."
+    "datalog_subjects": "pc_member(S).",
+    "datalog_objects": "resource(R).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_access(S, R, write) :- pc_member(S), resource(R)."
 }</t>
         </is>
       </c>
@@ -1174,20 +1014,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.8.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.8.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -1223,10 +1050,10 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Resource(R).",
+    "datalog_subjects": "Subject(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S). is_subreviewer(S) :- Subject(S).",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), has_role(S, 'pc-member'), not is_subreviewer(S), R = 'pcmember_conflicts_rc'."
+    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nis_subreviewer(S) :- Subject(S).",
+    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), has_role(S, 'pc-member'), is_subreviewer(S)."
 }</t>
         </is>
       </c>
@@ -1234,22 +1061,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18.0.2"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.18.0.2.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.18.0.2.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target&gt;
                         &lt;Subjects&gt;
                             &lt;Subject&gt;
@@ -1281,10 +1093,10 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_conflicted(S) :- Subject(S).",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), not is_conflicted(S), R = \"pcmember_assignmentcount_rc\"."
+    "datalog_subjects": "ProgramCommitteeMember(PCM).",
+    "datalog_objects": "",
+    "datalog_relationships": "is_conflicted(PCM) :- ProgramCommitteeMember(PCM).",
+    "datalog_actions": "deny_access(PCM) :- ProgramCommitteeMember(PCM), is_conflicted(PCM)."
 }</t>
         </is>
       </c>
@@ -1292,24 +1104,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.19.0.1.1.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.1.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -1361,10 +1156,10 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(S).",
+    "datalog_subjects": "Subject(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_delete(S, R) :- PCMember(S), Resource(R), has_role(S, 'pc_member'), has_isSubjectsMeeting(S, 'subreviewer'), has_resource_id(R, 'pcmember_conflicts_rc')."
+    "datalog_relationships": "has_role(S, \"pc_member\") :- Subject(S).\nhas_isSubjectsMeeting(S, \"subreviewer\") :- Subject(S).\nhas_isEq_meetingPaper_resId(R, \"pcmember_conflicts_rc\") :- Resource(R).",
+    "datalog_actions": "can_delete(S, R) :- Subject(S), Resource(R), has_role(S, \"pc_member\"), has_isSubjectsMeeting(S, \"subreviewer\"), has_isEq_meetingPaper_resId(R, \"pcmember_conflicts_rc\")."
 }</t>
         </is>
       </c>
@@ -1372,24 +1167,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0.0.2"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.20.0.0.2.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.20.0.0.2.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -1442,10 +1220,10 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R), ConflictStatus(C).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).\nhas_conflict_status(S, C) :- Subject(S), ConflictStatus(C).\nresource_is(Res, Type) :- Resource(Res), ResourceType(Type).",
-    "datalog_actions": "can_delete(S, Res) :- Subject(S), Resource(Res), has_role(S, \"pc-member\"), has_conflict_status(S, \"subreviewer\"), resource_is(Res, \"pcmember_assignmentcount_rc\"), resource_attribute(Res, \"isSeeUnassignedAllowed\", \"pcmember_conflicts_rc\")."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(S, \"pc-member\") :- Subject(S).\nhas_isConflicted(S, \"subreviewer\") :- Subject(S).\nhas_isSeeUnassignedAllowed(R, \"pcmember_conflicts_rc\") :- Resource(R).",
+    "datalog_actions": "can_delete(S, R) :- Subject(S), Resource(R), has_role(S, \"pc-member\"), has_isConflicted(S, \"subreviewer\"), has_isSeeUnassignedAllowed(R, \"pcmember_conflicts_rc\")."
 }</t>
         </is>
       </c>
@@ -1453,24 +1231,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0.1"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.23.0.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.23.0.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -1506,10 +1267,10 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S) :- role(S, \"subreviewer\"), isConflicted(S, \"pc_member\").",
-    "datalog_objects": "Resource(R) :- resource_id(R, \"pcmember_conflicts_rc\").",
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R)."
+    "datalog_actions": "can_access(S) :- Subject(S), role(S, \"subreviewer\"), isConflicted(S, \"pc_member\")."
 }</t>
         </is>
       </c>
@@ -1549,10 +1310,10 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
+    "datalog_subjects": "Subreviewer(S).",
     "datalog_objects": "",
-    "datalog_relationships": "is_conflicted(S) :- Subject(S).",
-    "datalog_actions": "deny_access(S) :- Subject(S), is_conflicted(S)."
+    "datalog_relationships": "",
+    "datalog_actions": "can_access(S) :- Subreviewer(S), not is_conflicted(S)."
 }</t>
         </is>
       </c>
@@ -1560,22 +1321,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24.0.2"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.24.0.2.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.24.0.2.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target/&gt;
                     &lt;Rule Effect="Deny" RuleId="RPSlist.24.0.2.3.r.1"&gt;
                         &lt;Target/&gt;
@@ -1599,9 +1345,9 @@
         <is>
           <t>{
     "datalog_subjects": "",
-    "datalog_objects": "Resource(R).",
+    "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), R = \"pcmember_assignmentcount_rc\"."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -1609,22 +1355,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0.2"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.11.0.2.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.11.0.2.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target&gt;
                         &lt;Subjects&gt;
                             &lt;Subject&gt;
@@ -1664,10 +1395,10 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).",
-    "datalog_actions": "can_access(S, R, 'write') :- Subject(S), Resource(R), has_role(S, 'pc-member'), resource_id(R, 'pcmember_assignmentcount_rc')."
+    "datalog_subjects": "Subject(S), Role(R).",
+    "datalog_objects": "Action(A).",
+    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
+    "datalog_actions": "can_write(S, A) :- Subject(S), Action(A), has_role(S, 'pc-member'), A = 'write'."
 }</t>
         </is>
       </c>
@@ -1675,24 +1406,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.21.0.0.2.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.21.0.0.2.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -1745,10 +1459,10 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S) :- subject_role(S, \"pc-member\"), subject_isConflicted(S, \"subreviewer\").",
-    "datalog_objects": "Resource(R) :- resource_id(R, \"pcmember_conflicts_rc\").",
+    "datalog_subjects": "Subject(S), role(S, R), isConflicted(S, C).",
+    "datalog_objects": "Resource(Res), phase(Res, P).",
     "datalog_relationships": "",
-    "datalog_actions": "can_write(S, R) :- PC_Member(S), Resource(R), action_id(A, \"write\"), resource_phase(R, \"pcmember_assignmentcount_rc\")."
+    "datalog_actions": "can_access(S, Res, write) :- Subject(S), Resource(Res), role(S, \"pc-member\"), isConflicted(S, \"subreviewer\"), phase(Res, \"pcmember_assignmentcount_rc\")."
 }</t>
         </is>
       </c>
@@ -1756,22 +1470,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2.0.4"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.2.0.4.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.2.0.4.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target/&gt;
                     &lt;Rule Effect="Deny" RuleId="RPSlist.2.0.4.3.r.1"&gt;
                         &lt;Target/&gt;
@@ -1794,10 +1493,10 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(P).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_conflict_resource(R) :- Resource(R), R = \"pcmember_conflicts_rc\".",
-    "datalog_actions": "deny_access(P, R) :- PCMember(P), Resource(R), is_conflict_resource(R)."
+    "datalog_subjects": "",
+    "datalog_objects": "",
+    "datalog_relationships": "",
+    "datalog_actions": "deny_all :- false."
 }</t>
         </is>
       </c>
@@ -1805,24 +1504,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcMember-conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0.3"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0.3.4"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.4.0.3.4.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.4.0.3.4.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target/&gt;
                         &lt;Rule Effect="Deny" RuleId="RPSlist.4.0.3.4.3.r.1"&gt;
                             &lt;Target/&gt;
@@ -1845,10 +1527,10 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
+    "datalog_subjects": "",
+    "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), not denied(S, R). denied(S, R) :- Subject(S), Resource(R), resource_id(R, \"pcMember-conflicts_rc\")."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -1856,24 +1538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6.0.3"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6.0.3.4"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.6.0.3.4.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.6.0.3.4.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                         &lt;Target&gt;
                             &lt;Subjects&gt;
 &lt;Subject&gt;
@@ -1917,10 +1582,10 @@
       <c r="C23" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S), Subreviewer(S).",
-    "datalog_objects": "AssignmentCountResource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_delete(S, R) :- PC_Member(S), Subreviewer(S), AssignmentCountResource(R)."
+    "datalog_subjects": "PC_Member(S).",
+    "datalog_objects": "Meeting(M).",
+    "datalog_relationships": "has_role(S, 'pc-member') :- PC_Member(S).\nhas_isMeeting(S, 'subreviewer') :- PC_Member(S).",
+    "datalog_actions": "can_delete(S, M) :- PC_Member(S), Meeting(M), has_role(S, 'pc-member'), has_isMeeting(S, 'subreviewer')."
 }</t>
         </is>
       </c>
@@ -1928,20 +1593,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.19.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -1986,9 +1638,9 @@
         <is>
           <t>{
     "datalog_subjects": "PC_Member(S).",
-    "datalog_objects": "Assignment_Count_Resource(R).",
-    "datalog_relationships": "has_role(S, pc_member) :- PC_Member(S).",
-    "datalog_actions": "can_write(S, R) :- PC_Member(S), Assignment_Count_Resource(R), has_role(S, pc_member)."
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(S, pc_member) :- PC_Member(S).\nis_subreviewer(S, R) :- PC_Member(S), Resource(R), subject_user_id(S) = resource_user_id(R).",
+    "datalog_actions": "can_write(S, R) :- PC_Member(S), Resource(R), has_role(S, pc_member), is_subreviewer(S, R), action(S, R, write)."
 }</t>
         </is>
       </c>
@@ -1996,28 +1648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1"&gt;
-                    &lt;Target/&gt;
-                    &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1.5"&gt;
-                        &lt;Target/&gt;
-                        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1.5.3"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.19.0.1.1.5.3.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.1.5.3.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
 &lt;Target/&gt;
 &lt;Rule Effect="Deny" RuleId="RPSlist.19.0.1.1.5.3.3.r.1"&gt;
     &lt;Target/&gt;
@@ -2040,10 +1671,10 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R) :- R = \"pcmember_assignmentcount_rc\".",
+    "datalog_subjects": "",
+    "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), false."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -2051,28 +1682,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2"&gt;
-                    &lt;Target/&gt;
-                    &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2.5"&gt;
-                        &lt;Target/&gt;
-                        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2.5.3"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.21.0.0.2.5.3.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.21.0.0.2.5.3.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
 &lt;Target/&gt;
 &lt;Rule Effect="Deny" RuleId="RPSlist.21.0.0.2.5.3.3.r.1"&gt;
     &lt;Target/&gt;
@@ -2095,10 +1705,10 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
+    "datalog_subjects": "",
+    "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), not denied(S, R). denied(S, R) :- Subject(S), Resource(R), resource_id(R, 'pcmember_assignmentcount_rc')."
+    "datalog_actions": "deny_all :- false."
 }</t>
         </is>
       </c>
@@ -2106,20 +1716,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.0"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.0.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.0.0.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.0.0.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -2164,9 +1761,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, delete) :- Subject(S), Resource(R), role(S, pc-member), isMeeting(S, subreviewer), resource_id(R, pcmember_conflicts_rc)."
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, \"pc-member\") :- Subject(S).\nhas_isMeeting(S, \"subreviewer\") :- Subject(S).",
+    "datalog_actions": "can_delete(S, O) :- Subject(S), Object(O), has_role(S, \"pc-member\"), has_isMeeting(S, \"subreviewer\")."
 }</t>
         </is>
       </c>
@@ -2174,20 +1771,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcMember-conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.4.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.4.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -2234,9 +1818,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, write) :- Subject(S), Resource(R), role(S, pc_member), resource_id(R, pcMember-conflicts_rc)."
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_member) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, write) :- Subject(S), Object(O), has_role(S, pc_member)."
 }</t>
         </is>
       </c>
@@ -2244,20 +1828,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.8.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.8.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                 &lt;Target&gt;
                     &lt;Subjects&gt;
                         &lt;Subject&gt;
@@ -2293,10 +1864,10 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "Subject(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U). has_attribute(U, 'isEq-subjUserId-resUserId', 'subreviewer') :- User(U).",
-    "datalog_actions": "deny_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-member'), has_attribute(U, 'isEq-subjUserId-resUserId', 'subreviewer')."
+    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nis_subreviewer(S) :- Subject(S).",
+    "datalog_actions": "can_access(S, R) :- Subject(S), Resource(R), has_role(S, 'pc-member'), is_subreviewer(S)."
 }</t>
         </is>
       </c>
@@ -2304,22 +1875,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_assignmentcount_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17.0.1"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.17.0.1.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.17.0.1.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                     &lt;Target&gt;
                         &lt;Subjects&gt;
                             &lt;Subject&gt;
@@ -2365,10 +1921,10 @@
       <c r="C30" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
+    "datalog_subjects": "Subject(S), has_role(S, subreviewer).",
+    "datalog_objects": "Object(O).",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, delete) :- Subject(S), Resource(R), role(S, subreviewer), resource_id(R, pcmember_assignmentcount_rc)."
+    "datalog_actions": "can_delete(S, O) :- Subject(S), Object(O), has_role(S, subreviewer)."
 }</t>
         </is>
       </c>
@@ -2376,26 +1932,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21"&gt;
-        &lt;Target&gt;
-            &lt;Resources&gt;
-                &lt;Resource&gt;
-                    &lt;ResourceMatch MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pcmember_conflicts_rc&lt;/AttributeValue&gt;
-                        &lt;ResourceAttributeDesignator AttributeId="urn:oasis:names:tc:xacml:1.0:resource:resource-id" DataType="http://www.w3.org/2001/XMLSchema#string"/&gt;
-                    &lt;/ResourceMatch&gt;
-                &lt;/Resource&gt;
-            &lt;/Resources&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0"&gt;
-                &lt;Target/&gt;
-                &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2"&gt;
-                    &lt;Target/&gt;
-                    &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2.5"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.21.0.0.2.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.21.0.0.2.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable"&gt;
                             &lt;Target&gt;
 &lt;Subjects&gt;
     &lt;Subject&gt;
@@ -2435,10 +1972,10 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(S, 'pc_member') :- Subject(S), Role('pc_member').",
-    "datalog_actions": "can_access(S, Res, 'delete') :- Subject(S), Resource(Res), has_role(S, 'pc_member'), resource_id(Res, 'pcmember_conflicts_rc')."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "",
+    "datalog_relationships": "has_role(S, pc_member) :- Subject(S).",
+    "datalog_actions": "can_delete(S) :- Subject(S), has_role(S, pc_member)."
 }</t>
         </is>
       </c>
